--- a/Fulton Hogan/35604/matrix_cragieburn.xlsx
+++ b/Fulton Hogan/35604/matrix_cragieburn.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fulton Hogan\35604\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9F489E4C-3FA7-4401-8DEA-8E92A5F2C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2D99B2-FA91-4B30-B364-B7E73D0A78B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="1110" windowWidth="28905" windowHeight="18450" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
+    <workbookView xWindow="9525" yWindow="1680" windowWidth="28905" windowHeight="19365" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Matrix Name</t>
   </si>
@@ -40,9 +53,6 @@
     <t>Tag 2</t>
   </si>
   <si>
-    <t>Overall Progress</t>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -53,6 +63,15 @@
   </si>
   <si>
     <t>Columns</t>
+  </si>
+  <si>
+    <t>Area 1</t>
+  </si>
+  <si>
+    <t>ITP 0001 - Clearing &amp; Grubbing</t>
+  </si>
+  <si>
+    <t>Area 2</t>
   </si>
 </sst>
 </file>
@@ -913,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EF041-A184-4873-A38F-D767E07AD295}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,27 +968,53 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
